--- a/files/04.TSE/eleicao_votacao_partido_filtrado.xlsx
+++ b/files/04.TSE/eleicao_votacao_partido_filtrado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\eleicoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\01.github\mapeamento_uberaba\files\04.TSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E8C19-94B2-4FEA-AFE8-0199B0E95F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0309DF8B-27F6-42EC-AAC9-0DB7D24CBE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3585" yWindow="3945" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,10 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86:L274"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3875,7 +3876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2022</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2022</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2022</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2022</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2022</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2022</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2022</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2022</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2022</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2022</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2022</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2022</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2022</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2022</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2022</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2022</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2022</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2022</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2022</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2022</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2022</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2022</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2022</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2022</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2022</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2022</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2022</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2022</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2022</v>
       </c>
@@ -6207,7 +6208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2022</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2022</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2022</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2022</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2022</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2022</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2022</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2022</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2022</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2022</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2022</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2022</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2022</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2022</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2022</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2022</v>
       </c>
@@ -6999,7 +7000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2022</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2022</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2022</v>
       </c>
@@ -7131,7 +7132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2022</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2022</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2022</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2022</v>
       </c>
@@ -7307,7 +7308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2022</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2022</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2022</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2022</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2022</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2022</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2022</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2022</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2022</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2022</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2022</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2022</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2022</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2022</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2022</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2022</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2022</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2022</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2022</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2022</v>
       </c>
@@ -8187,7 +8188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2022</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2022</v>
       </c>
@@ -8451,7 +8452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2022</v>
       </c>
@@ -8539,7 +8540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2022</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2022</v>
       </c>
@@ -8671,7 +8672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2022</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2022</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2022</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2022</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2022</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2022</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2022</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -9023,7 +9024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2022</v>
       </c>
@@ -9067,7 +9068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2022</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2022</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2022</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2022</v>
       </c>
@@ -9243,7 +9244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2022</v>
       </c>
@@ -9287,7 +9288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2022</v>
       </c>
@@ -9331,7 +9332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2022</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2022</v>
       </c>
@@ -9419,7 +9420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2022</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2022</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2022</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2022</v>
       </c>
@@ -9595,7 +9596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2022</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2022</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2022</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2022</v>
       </c>
@@ -9771,7 +9772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2022</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2022</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2022</v>
       </c>
@@ -9903,7 +9904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2022</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2022</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -10035,7 +10036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2022</v>
       </c>
@@ -10079,7 +10080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2022</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2022</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2022</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2022</v>
       </c>
@@ -10299,7 +10300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -10343,7 +10344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2022</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2022</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2022</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2022</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2022</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2022</v>
       </c>
@@ -10651,7 +10652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2022</v>
       </c>
@@ -10695,7 +10696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -10739,7 +10740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -10783,7 +10784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -10827,7 +10828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -10959,7 +10960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2022</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -11047,7 +11048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -11091,7 +11092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -11135,7 +11136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -11223,7 +11224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2022</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2022</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2022</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -11399,7 +11400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2022</v>
       </c>
@@ -11443,7 +11444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2022</v>
       </c>
@@ -11487,7 +11488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2022</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2022</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2022</v>
       </c>
@@ -11619,7 +11620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -11663,7 +11664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2022</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2022</v>
       </c>
@@ -11751,7 +11752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2022</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2022</v>
       </c>
@@ -11839,7 +11840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2022</v>
       </c>
@@ -11883,7 +11884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -11927,7 +11928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2022</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2022</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2022</v>
       </c>
@@ -12059,7 +12060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2022</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -12147,7 +12148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2022</v>
       </c>
@@ -12191,7 +12192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -12235,7 +12236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2022</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2022</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2022</v>
       </c>
@@ -12367,7 +12368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -12411,7 +12412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -12455,7 +12456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -12499,7 +12500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -12543,7 +12544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -12587,7 +12588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -12631,7 +12632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -12807,7 +12808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -12851,7 +12852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -12939,7 +12940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -12983,7 +12984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -13027,7 +13028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -13072,7 +13073,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N283" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N283" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="276"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>